--- a/W23 Rubric Item Data/Exam_1_Data_mock_up.xlsx
+++ b/W23 Rubric Item Data/Exam_1_Data_mock_up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eb19ff15cf06bf2/Documents/GitHub/MC_data_cleaning/W23 Rubric Item Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{6A33C854-CDD2-453F-82DD-21853F0C6E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59B2C54D-22A3-4A8A-BDD8-A69A8C1FD5AB}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{6A33C854-CDD2-453F-82DD-21853F0C6E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E714B8BE-51F0-4C8F-90D2-84A679A7AD1B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{780800EE-9BBA-4B14-B135-9C8CB9F324F2}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{780800EE-9BBA-4B14-B135-9C8CB9F324F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Exam_1_Data_mock_up" sheetId="1" r:id="rId1"/>
@@ -657,6 +657,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,13 +982,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA3832D-9BCD-43C1-A5B3-C831DFBA1406}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1248,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C40260-FD0F-4D05-AC9B-731883CBFD0A}">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
